--- a/kartu infaq 2019.xlsx
+++ b/kartu infaq 2019.xlsx
@@ -19,6 +19,7 @@
     <sheet name="JULI" sheetId="6" r:id="rId5"/>
     <sheet name="AGU" sheetId="8" r:id="rId6"/>
     <sheet name="SEPT" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5161" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5162" uniqueCount="191">
   <si>
     <t>KHOIRUL K</t>
   </si>
@@ -641,6 +642,9 @@
   <si>
     <t>CAMPING CAI</t>
   </si>
+  <si>
+    <t>test</t>
+  </si>
 </sst>
 </file>
 
@@ -19243,10 +19247,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P159"/>
+  <dimension ref="A1:P163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20790,1958 +20794,1978 @@
       </c>
       <c r="O47" s="29"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>179</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D59" t="s">
         <v>52</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F59" t="s">
         <v>54</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I59" t="s">
         <v>180</v>
       </c>
-      <c r="K57" t="s">
-        <v>55</v>
-      </c>
-      <c r="N57" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+      <c r="K59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B59" s="28"/>
-      <c r="D59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G59" s="28"/>
-      <c r="I59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J59" s="28"/>
-      <c r="K59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L59" s="28"/>
-      <c r="N59" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="O59" s="28"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="28"/>
-      <c r="D60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="28"/>
-      <c r="F60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="28"/>
-      <c r="I60" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="J60" s="28"/>
-      <c r="K60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L60" s="28"/>
-      <c r="N60" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="O60" s="28"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="B61" s="28"/>
       <c r="D61" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E61" s="28">
-        <v>1000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E61" s="28"/>
       <c r="F61" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G61" s="28">
-        <v>1000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G61" s="28"/>
       <c r="I61" s="3" t="s">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="J61" s="28"/>
       <c r="K61" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="L61" s="28">
-        <v>1000</v>
-      </c>
-      <c r="N61" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="O61" s="28"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="L61" s="28"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="B62" s="28"/>
       <c r="D62" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E62" s="28">
-        <v>2000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E62" s="28"/>
       <c r="F62" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G62" s="28">
-        <v>2000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G62" s="28"/>
       <c r="I62" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="J62" s="28"/>
       <c r="K62" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="L62" s="28">
-        <v>2000</v>
-      </c>
-      <c r="N62" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="O62" s="28"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="L62" s="28"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="B63" s="28"/>
       <c r="D63" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="E63" s="28">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="G63" s="28">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>9</v>
+        <v>189</v>
       </c>
       <c r="J63" s="28"/>
       <c r="K63" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="L63" s="28">
-        <v>3000</v>
-      </c>
-      <c r="N63" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="O63" s="28"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>9</v>
+        <v>189</v>
       </c>
       <c r="B64" s="28"/>
       <c r="D64" s="3" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="E64" s="28">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="G64" s="28">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J64" s="28"/>
       <c r="K64" s="3" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="L64" s="28">
-        <v>3000</v>
-      </c>
-      <c r="N64" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="O64" s="28"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B65" s="28"/>
       <c r="D65" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E65" s="28">
         <v>3000</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G65" s="28">
         <v>3000</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J65" s="28"/>
       <c r="K65" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L65" s="28">
-        <v>3000</v>
-      </c>
-      <c r="N65" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O65" s="28"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B66" s="28"/>
       <c r="D66" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E66" s="28">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G66" s="28">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J66" s="28"/>
       <c r="K66" s="3" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="L66" s="28">
-        <v>5000</v>
-      </c>
-      <c r="N66" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="O66" s="28"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B67" s="28"/>
       <c r="D67" s="3" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="E67" s="28">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="G67" s="28">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J67" s="28"/>
       <c r="K67" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L67" s="28">
-        <v>7000</v>
-      </c>
-      <c r="N67" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="O67" s="28"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B68" s="28"/>
       <c r="D68" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E68" s="28">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G68" s="28">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J68" s="28"/>
       <c r="K68" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L68" s="28">
-        <v>9000</v>
-      </c>
-      <c r="N68" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="O68" s="28"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B69" s="28"/>
       <c r="D69" s="3" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="E69" s="28">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="G69" s="28">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J69" s="28"/>
       <c r="K69" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L69" s="28">
-        <v>11000</v>
-      </c>
-      <c r="N69" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O69" s="28"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="B70" s="28"/>
       <c r="D70" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E70" s="28">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G70" s="28">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="J70" s="28"/>
       <c r="K70" s="3" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="L70" s="28">
-        <v>13000</v>
-      </c>
-      <c r="N70" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="O70" s="28"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B71" s="28"/>
       <c r="D71" s="3" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="E71" s="28">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="G71" s="28">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J71" s="28"/>
       <c r="K71" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L71" s="28">
-        <v>14000</v>
-      </c>
-      <c r="N71" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="O71" s="28"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="B72" s="28"/>
       <c r="D72" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E72" s="28">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G72" s="28">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="J72" s="28"/>
       <c r="K72" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L72" s="28">
-        <v>17000</v>
-      </c>
-      <c r="N72" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="O72" s="28"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B73" s="28"/>
       <c r="D73" s="3" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="E73" s="28">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="G73" s="28">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J73" s="28"/>
       <c r="K73" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L73" s="28">
-        <v>58000</v>
-      </c>
-      <c r="N73" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="O73" s="28"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B74" s="28"/>
       <c r="D74" s="3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E74" s="28">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G74" s="28">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J74" s="28"/>
       <c r="K74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="28">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="28"/>
+      <c r="D75" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" s="28">
+        <v>13000</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G75" s="28">
+        <v>13000</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" s="28"/>
+      <c r="K75" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L75" s="28">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="28"/>
+      <c r="D76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="28">
+        <v>14000</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="28">
+        <v>14000</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="28"/>
+      <c r="K76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L76" s="28">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" s="28">
+        <v>6000</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="28">
+        <v>17000</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="28">
+        <v>17000</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J77" s="28">
+        <v>6000</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L77" s="28">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="28">
+        <v>10000</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="28">
+        <v>58000</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="28">
+        <v>58000</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J78" s="28">
+        <v>10000</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" s="28">
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="28">
+        <v>10000</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L74" s="28">
+      <c r="E79" s="28">
         <v>98000</v>
       </c>
-      <c r="N74" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="O74" s="28"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B75" s="28">
-        <v>6000</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="28">
-        <v>17000</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G75" s="28">
-        <v>17000</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="J75" s="28">
-        <v>6000</v>
-      </c>
-      <c r="K75" s="4" t="s">
+      <c r="F79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="28">
+        <v>98000</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J79" s="28">
+        <v>10000</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L79" s="28">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="L75" s="29">
-        <f>SUM(L59:L74)</f>
-        <v>244000</v>
-      </c>
-      <c r="N75" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="O75" s="28">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76" s="28">
-        <v>10000</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" s="28">
-        <v>58000</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="28">
-        <v>58000</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J76" s="28">
-        <v>10000</v>
-      </c>
-      <c r="K76" s="4" t="s">
+      <c r="B80" s="29">
+        <f>SUM(B61:B79)</f>
+        <v>26000</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E80" s="29">
+        <f>SUM(E61:E79)</f>
+        <v>270000</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G80" s="29">
+        <f t="shared" ref="G80" si="5">SUM(G61:G79)</f>
+        <v>270000</v>
+      </c>
+      <c r="H80" s="2"/>
+      <c r="I80" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J80" s="29">
+        <f t="shared" ref="J80" si="6">SUM(J61:J79)</f>
+        <v>26000</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L80" s="29">
+        <f t="shared" ref="L80" si="7">SUM(L61:L79)</f>
+        <v>557000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L76" s="29"/>
-      <c r="N76" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="O76" s="28">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B77" s="28">
-        <v>10000</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="28">
-        <v>98000</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" s="28">
-        <v>98000</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J77" s="28">
-        <v>10000</v>
-      </c>
-      <c r="N77" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="O77" s="28">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="29">
-        <f>SUM(B59:B77)</f>
-        <v>26000</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E78" s="29">
-        <f>SUM(E59:E77)</f>
-        <v>270000</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G78" s="29">
-        <f t="shared" ref="G78" si="5">SUM(G59:G77)</f>
-        <v>270000</v>
-      </c>
-      <c r="H78" s="2"/>
-      <c r="I78" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J78" s="29">
-        <f t="shared" ref="J78" si="6">SUM(J59:J77)</f>
-        <v>26000</v>
-      </c>
-      <c r="N78" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="O78" s="29">
-        <f t="shared" ref="O78" si="7">SUM(O59:O77)</f>
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+      <c r="B81" s="29"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B79" s="29"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="4" t="s">
+      <c r="E81" s="29"/>
+      <c r="F81" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E79" s="29"/>
-      <c r="F79" s="4" t="s">
+      <c r="G81" s="29"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G79" s="29"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="4" t="s">
+      <c r="J81" s="29"/>
+      <c r="K81" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J79" s="29"/>
-      <c r="N79" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="O79" s="29"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="L81" s="29"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>56</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D83" t="s">
         <v>38</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F83" t="s">
         <v>70</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I83" t="s">
         <v>53</v>
       </c>
-      <c r="K81" t="s">
-        <v>183</v>
-      </c>
-      <c r="N81" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="28"/>
-      <c r="D83" s="3" t="s">
+      <c r="B85" s="28"/>
+      <c r="D85" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="E83" s="28"/>
-      <c r="F83" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G83" s="28"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="J83" s="28"/>
-      <c r="K83" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L83" s="28"/>
-      <c r="N83" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O83" s="28"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B84" s="28"/>
-      <c r="D84" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E84" s="28"/>
-      <c r="F84" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G84" s="28"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="J84" s="28"/>
-      <c r="K84" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="L84" s="28"/>
-      <c r="N84" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O84" s="28"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B85" s="28">
-        <v>1000</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="E85" s="28"/>
       <c r="F85" s="3" t="s">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="G85" s="28"/>
       <c r="H85" s="3"/>
       <c r="I85" s="28" t="s">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="J85" s="28"/>
-      <c r="K85" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="L85" s="28"/>
-      <c r="N85" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="O85" s="28"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B86" s="28">
-        <v>2000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B86" s="28"/>
       <c r="D86" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="G86" s="28"/>
       <c r="H86" s="3"/>
       <c r="I86" s="28" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="J86" s="28"/>
-      <c r="K86" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L86" s="28"/>
-      <c r="N86" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O86" s="28"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="B87" s="28">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>9</v>
+        <v>189</v>
       </c>
       <c r="E87" s="28"/>
       <c r="F87" s="3" t="s">
-        <v>9</v>
+        <v>189</v>
       </c>
       <c r="G87" s="28"/>
       <c r="H87" s="3"/>
       <c r="I87" s="28" t="s">
-        <v>9</v>
+        <v>189</v>
       </c>
       <c r="J87" s="28"/>
-      <c r="K87" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L87" s="28"/>
-      <c r="N87" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O87" s="28"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="B88" s="28">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G88" s="28"/>
       <c r="H88" s="3"/>
       <c r="I88" s="28" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J88" s="28"/>
-      <c r="K88" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L88" s="28"/>
-      <c r="N88" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O88" s="28"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B89" s="28">
         <v>3000</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E89" s="28"/>
       <c r="F89" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G89" s="28"/>
       <c r="H89" s="3"/>
       <c r="I89" s="28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J89" s="28"/>
-      <c r="K89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L89" s="28"/>
-      <c r="N89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O89" s="28"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B90" s="28">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="3" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G90" s="28"/>
       <c r="H90" s="3"/>
       <c r="I90" s="28" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J90" s="28"/>
-      <c r="K90" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L90" s="28"/>
-      <c r="N90" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O90" s="28"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="B91" s="28">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G91" s="28"/>
       <c r="H91" s="3"/>
       <c r="I91" s="28" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J91" s="28"/>
-      <c r="K91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L91" s="28"/>
-      <c r="N91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O91" s="28"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B92" s="28">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G92" s="28"/>
       <c r="H92" s="3"/>
       <c r="I92" s="28" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J92" s="28"/>
-      <c r="K92" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L92" s="28"/>
-      <c r="N92" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O92" s="28"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="B93" s="28">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G93" s="28"/>
       <c r="H93" s="3"/>
       <c r="I93" s="28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J93" s="28"/>
-      <c r="K93" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L93" s="28"/>
-      <c r="N93" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O93" s="28"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B94" s="28">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="E94" s="28"/>
       <c r="F94" s="3" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="G94" s="28"/>
       <c r="H94" s="3"/>
       <c r="I94" s="28" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="J94" s="28"/>
-      <c r="K94" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="L94" s="28"/>
-      <c r="N94" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O94" s="28"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="B95" s="28">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G95" s="28"/>
       <c r="H95" s="3"/>
       <c r="I95" s="28" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J95" s="28"/>
-      <c r="K95" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L95" s="28"/>
-      <c r="N95" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O95" s="28"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B96" s="28">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="3" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="G96" s="28"/>
       <c r="H96" s="3"/>
       <c r="I96" s="28" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="J96" s="28"/>
-      <c r="K96" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L96" s="28"/>
-      <c r="N96" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O96" s="28"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="B97" s="28">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G97" s="28"/>
       <c r="H97" s="3"/>
       <c r="I97" s="28" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J97" s="28"/>
-      <c r="K97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L97" s="28"/>
-      <c r="N97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O97" s="28"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B98" s="28">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E98" s="28"/>
       <c r="F98" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G98" s="28"/>
       <c r="H98" s="3"/>
       <c r="I98" s="28" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J98" s="28"/>
-      <c r="K98" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L98" s="28"/>
-      <c r="N98" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O98" s="28"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>7</v>
+        <v>189</v>
       </c>
       <c r="B99" s="28">
-        <v>17000</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E99" s="29">
-        <f ca="1">SUM(E83:E101)</f>
-        <v>0</v>
-      </c>
+        <v>13000</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="28"/>
       <c r="F99" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G99" s="28">
-        <v>6000</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G99" s="28"/>
       <c r="H99" s="3"/>
       <c r="I99" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="J99" s="28">
-        <v>6000</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L99" s="29">
-        <f>SUM(L83:L98)</f>
-        <v>0</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="O99" s="29">
-        <f>SUM(O83:O98)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="J99" s="28"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B100" s="28">
-        <v>58000</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E100" s="29"/>
+        <v>14000</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="28"/>
       <c r="F100" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" s="28">
-        <v>10000</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G100" s="28"/>
       <c r="H100" s="3"/>
       <c r="I100" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J100" s="28">
-        <v>10000</v>
-      </c>
-      <c r="K100" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L100" s="29"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O100" s="29"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="J100" s="28"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B101" s="28">
-        <v>98000</v>
+        <v>17000</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E101" s="29">
+        <f ca="1">SUM(E85:E103)</f>
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G101" s="28">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="J101" s="28">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" s="28">
+        <v>58000</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" s="29"/>
+      <c r="F102" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" s="28">
+        <v>10000</v>
+      </c>
+      <c r="H102" s="3"/>
+      <c r="I102" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J102" s="28">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="28">
+        <v>98000</v>
+      </c>
+      <c r="F103" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="J101" s="28">
+      <c r="G103" s="28">
         <v>10000</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
+      <c r="H103" s="3"/>
+      <c r="I103" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="J103" s="28">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B102" s="29">
-        <f>SUM(B83:B101)</f>
+      <c r="B104" s="29">
+        <f>SUM(B85:B103)</f>
         <v>270000</v>
       </c>
-      <c r="C102" s="2"/>
-      <c r="F102" s="4" t="s">
+      <c r="C104" s="2"/>
+      <c r="F104" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G102" s="29">
-        <f t="shared" ref="G102" si="8">SUM(G83:G101)</f>
+      <c r="G104" s="29">
+        <f t="shared" ref="G104" si="8">SUM(G85:G103)</f>
         <v>26000</v>
       </c>
-      <c r="H102" s="4"/>
-      <c r="I102" s="29" t="s">
+      <c r="H104" s="4"/>
+      <c r="I104" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="J102" s="29">
-        <f t="shared" ref="J102" si="9">SUM(J83:J101)</f>
+      <c r="J104" s="29">
+        <f t="shared" ref="J104" si="9">SUM(J85:J103)</f>
         <v>26000</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B103" s="29"/>
-      <c r="C103" s="2"/>
-      <c r="F103" s="4" t="s">
+      <c r="B105" s="29"/>
+      <c r="C105" s="2"/>
+      <c r="F105" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G103" s="29"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="29" t="s">
+      <c r="G105" s="29"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="J103" s="29"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="J105" s="29"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>168</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D117" t="s">
         <v>182</v>
       </c>
-      <c r="F113" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+      <c r="F117" t="s">
+        <v>55</v>
+      </c>
+      <c r="I117" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B115" s="28"/>
-      <c r="D115" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E115" s="28"/>
-      <c r="F115" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G115" s="28"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B116" s="28"/>
-      <c r="D116" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E116" s="28"/>
-      <c r="F116" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="28"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B117" s="28"/>
-      <c r="D117" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E117" s="28"/>
-      <c r="F117" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G117" s="28">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B118" s="28"/>
-      <c r="D118" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E118" s="28"/>
-      <c r="F118" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G118" s="28">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="B119" s="28"/>
       <c r="D119" s="3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E119" s="28"/>
       <c r="F119" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" s="28">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G119" s="28"/>
+      <c r="I119" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J119" s="28"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="B120" s="28"/>
       <c r="D120" s="3" t="s">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="E120" s="28"/>
       <c r="F120" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G120" s="28">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="G120" s="28"/>
+      <c r="I120" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J120" s="28"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="B121" s="28"/>
       <c r="D121" s="3" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="E121" s="28"/>
       <c r="F121" s="3" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="G121" s="28">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="I121" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="J121" s="28"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B122" s="28"/>
       <c r="D122" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E122" s="28"/>
       <c r="F122" s="3" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="G122" s="28">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="I122" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J122" s="28"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B123" s="28"/>
       <c r="D123" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E123" s="28"/>
       <c r="F123" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G123" s="28">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+      <c r="I123" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J123" s="28"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B124" s="28"/>
       <c r="D124" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E124" s="28"/>
       <c r="F124" s="3" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="G124" s="28">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+      <c r="I124" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J124" s="28"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B125" s="28"/>
       <c r="D125" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E125" s="28"/>
       <c r="F125" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G125" s="28">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+      <c r="I125" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J125" s="28"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="B126" s="28"/>
       <c r="D126" s="3" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="E126" s="28"/>
       <c r="F126" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G126" s="28">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+      <c r="I126" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J126" s="28"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B127" s="28"/>
       <c r="D127" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E127" s="28"/>
       <c r="F127" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G127" s="28">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7000</v>
+      </c>
+      <c r="I127" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J127" s="28"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B128" s="28"/>
       <c r="D128" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E128" s="28"/>
       <c r="F128" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G128" s="28">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9000</v>
+      </c>
+      <c r="I128" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J128" s="28"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B129" s="28"/>
       <c r="D129" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E129" s="28"/>
       <c r="F129" s="3" t="s">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="G129" s="28">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11000</v>
+      </c>
+      <c r="I129" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J129" s="28"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="B130" s="28"/>
       <c r="D130" s="3" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="E130" s="28"/>
       <c r="F130" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G130" s="28">
+        <v>13000</v>
+      </c>
+      <c r="I130" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J130" s="28"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="28"/>
+      <c r="D131" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="28"/>
+      <c r="F131" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G130" s="28">
+      <c r="G131" s="28">
+        <v>14000</v>
+      </c>
+      <c r="I131" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J131" s="28"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="28"/>
+      <c r="D132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="28"/>
+      <c r="F132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132" s="28">
+        <v>17000</v>
+      </c>
+      <c r="I132" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J132" s="28"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" s="28"/>
+      <c r="D133" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="28"/>
+      <c r="F133" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" s="28">
+        <v>58000</v>
+      </c>
+      <c r="I133" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J133" s="28"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="28"/>
+      <c r="D134" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="28"/>
+      <c r="F134" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G134" s="28">
+        <v>98000</v>
+      </c>
+      <c r="I134" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" s="28"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B135" s="28">
+        <v>6000</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E135" s="29">
+        <f>SUM(E119:E134)</f>
+        <v>0</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G135" s="29">
+        <f>SUM(G119:G134)</f>
+        <v>244000</v>
+      </c>
+      <c r="I135" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="J135" s="28">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B136" s="28">
+        <v>10000</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E136" s="29"/>
+      <c r="F136" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G136" s="29"/>
+      <c r="I136" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J136" s="28">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B137" s="28">
+        <v>10000</v>
+      </c>
+      <c r="I137" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="J137" s="28">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B138" s="29">
+        <f t="shared" ref="B138" si="10">SUM(B119:B137)</f>
+        <v>26000</v>
+      </c>
+      <c r="I138" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J138" s="29">
+        <f t="shared" ref="J138" si="11">SUM(J119:J137)</f>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139" s="29"/>
+      <c r="I139" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J139" s="29"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141" t="s">
+        <v>186</v>
+      </c>
+      <c r="F141" t="s">
+        <v>183</v>
+      </c>
+      <c r="I141" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="28"/>
+      <c r="D143" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E143" s="28"/>
+      <c r="F143" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G143" s="28"/>
+      <c r="I143" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J143" s="28"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="28"/>
+      <c r="D144" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="28"/>
+      <c r="F144" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G144" s="28"/>
+      <c r="I144" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J144" s="28"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B145" s="28">
+        <v>1000</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E145" s="28">
+        <v>1000</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G145" s="28"/>
+      <c r="I145" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J145" s="28"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B146" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E146" s="28">
+        <v>4000</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G146" s="28"/>
+      <c r="I146" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J146" s="28"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" s="28">
+        <v>4000</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147" s="28">
+        <v>5000</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="28"/>
+      <c r="I147" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J147" s="28"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" s="28">
+        <v>5000</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E148" s="28">
+        <v>6000</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G148" s="28"/>
+      <c r="I148" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J148" s="28"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="28">
+        <v>6000</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="28">
+        <v>6000</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" s="28"/>
+      <c r="I149" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J149" s="28"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B150" s="28">
+        <v>6000</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="28">
+        <v>7000</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G150" s="28"/>
+      <c r="I150" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J150" s="28"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="28">
+        <v>8000</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E151" s="28">
+        <v>10000</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G151" s="28"/>
+      <c r="I151" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J151" s="28"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" s="28">
+        <v>10000</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E152" s="28">
+        <v>10000</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G152" s="28"/>
+      <c r="I152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J152" s="28"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B153" s="28">
+        <v>10000</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E153" s="28">
+        <v>10000</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" s="28"/>
+      <c r="I153" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J153" s="28"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" s="28">
+        <v>12000</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="28">
+        <v>15000</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G154" s="28"/>
+      <c r="I154" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J154" s="28"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" s="28">
+        <v>15000</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" s="28">
+        <v>19000</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G155" s="28"/>
+      <c r="I155" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J155" s="28"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156" s="28">
+        <v>20000</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="28">
+        <v>24000</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G156" s="28"/>
+      <c r="I156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J156" s="28"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B157" s="28">
+        <v>23000</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E157" s="28">
+        <v>29000</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" s="28"/>
+      <c r="I157" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J157" s="28"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" s="28">
+        <v>25000</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E158" s="28">
         <v>30000</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B131" s="28">
-        <v>6000</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="4" t="s">
+      <c r="F158" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" s="28"/>
+      <c r="I158" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J158" s="28"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" s="28">
+        <v>30000</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="28">
+        <v>38000</v>
+      </c>
+      <c r="F159" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E131" s="29">
-        <f>SUM(E115:E130)</f>
+      <c r="G159" s="29">
+        <f>SUM(G143:G158)</f>
         <v>0</v>
       </c>
-      <c r="F131" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G131" s="28">
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B132" s="28">
-        <v>10000</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="4" t="s">
+      <c r="H159" s="2"/>
+      <c r="I159" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J159" s="29">
+        <f>SUM(J143:J158)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B160" s="28">
+        <v>103000</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E160" s="28">
+        <v>128000</v>
+      </c>
+      <c r="F160" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E132" s="29"/>
-      <c r="F132" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" s="28">
-        <v>128000</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B133" s="28">
-        <v>10000</v>
-      </c>
-      <c r="F133" s="3" t="s">
+      <c r="G160" s="29"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J160" s="29"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G133" s="28">
+      <c r="B161" s="28">
+        <v>173000</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E161" s="28">
         <v>215000</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B134" s="29">
-        <f t="shared" ref="B134" si="10">SUM(B115:B133)</f>
-        <v>26000</v>
-      </c>
-      <c r="F134" s="4" t="s">
+      <c r="B162" s="29">
+        <f t="shared" ref="B162" si="12">SUM(B143:B161)</f>
+        <v>454000</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G134" s="29">
-        <f t="shared" ref="G134" si="11">SUM(G115:G133)</f>
+      <c r="E162" s="29">
+        <f>SUM(E143:E161)</f>
         <v>557000</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
+      <c r="H162" s="2"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B135" s="29"/>
-      <c r="F135" s="4" t="s">
+      <c r="B163" s="29"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G135" s="29"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>0</v>
-      </c>
-      <c r="D137" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B139" s="28"/>
-      <c r="D139" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E139" s="28"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B140" s="28"/>
-      <c r="D140" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E140" s="28"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B141" s="28">
-        <v>1000</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E141" s="28">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B142" s="28">
-        <v>3000</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E142" s="28">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B143" s="28">
-        <v>4000</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E143" s="28">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B144" s="28">
-        <v>5000</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E144" s="28">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B145" s="28">
-        <v>6000</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E145" s="28">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B146" s="28">
-        <v>6000</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146" s="28">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B147" s="28">
-        <v>8000</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E147" s="28">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B148" s="28">
-        <v>10000</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E148" s="28">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B149" s="28">
-        <v>10000</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E149" s="28">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B150" s="28">
-        <v>12000</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E150" s="28">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B151" s="28">
-        <v>15000</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E151" s="28">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B152" s="28">
-        <v>20000</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E152" s="28">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B153" s="28">
-        <v>23000</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E153" s="28">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B154" s="28">
-        <v>25000</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E154" s="28">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B155" s="28">
-        <v>30000</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E155" s="28">
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B156" s="28">
-        <v>103000</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E156" s="28">
-        <v>128000</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B157" s="28">
-        <v>173000</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E157" s="28">
-        <v>215000</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B158" s="29">
-        <f t="shared" ref="B158" si="12">SUM(B139:B157)</f>
-        <v>454000</v>
-      </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E158" s="29">
-        <f>SUM(E139:E157)</f>
-        <v>557000</v>
-      </c>
-      <c r="H158" s="2"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B159" s="29"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E159" s="29"/>
-      <c r="H159" s="2"/>
+      <c r="E163" s="29"/>
+      <c r="H163" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>